--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_DeepAR_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_DeepAR_Lineal_Estacionario_ARMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.5783829906540999</v>
+        <v>0.5734109224053913</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.578071245476774</v>
+        <v>0.5689607730355942</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.5863127492277844</v>
+        <v>0.5765090202033768</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.574004851152303</v>
+        <v>0.5797743837610607</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.5794887911213552</v>
+        <v>0.5761422966930957</v>
       </c>
     </row>
   </sheetData>
